--- a/test/test_simulation_data/Variantfile.xlsx
+++ b/test/test_simulation_data/Variantfile.xlsx
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.98219279472339</v>
+        <v>5.165942130649757</v>
       </c>
       <c r="C2" t="n">
-        <v>12659.84514385467</v>
+        <v>11154.18953864742</v>
       </c>
     </row>
     <row r="3">
@@ -1020,10 +1020,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>2.007347000063122</v>
+        <v>4.798849819416276</v>
       </c>
       <c r="C3" t="n">
-        <v>15673.70169019627</v>
+        <v>13672.96917189622</v>
       </c>
     </row>
   </sheetData>

--- a/test/test_simulation_data/Variantfile.xlsx
+++ b/test/test_simulation_data/Variantfile.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" state="visible" r:id="rId1"/>
@@ -27,7 +27,7 @@
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
-      <color rgb="FF000000"/>
+      <color theme="1"/>
       <sz val="11"/>
     </font>
     <font>
@@ -82,22 +82,55 @@
     <xf numFmtId="42" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="general" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="right" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -183,41 +216,41 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:srgbClr val="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:srgbClr val="ffffff"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="1f497d"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="eeece1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="4f818d"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="c0504d"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="9bbb59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="8064a2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4bacc6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="f79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0000ff"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -225,243 +258,131 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Times New Roman"/>
-        <a:font script="Hebr" typeface="Times New Roman"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="MoolBoran"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Times New Roman"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
-        <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="宋体"/>
-        <a:font script="Hant" typeface="新細明體"/>
-        <a:font script="Arab" typeface="Arial"/>
-        <a:font script="Hebr" typeface="Arial"/>
-        <a:font script="Thai" typeface="Tahoma"/>
-        <a:font script="Ethi" typeface="Nyala"/>
-        <a:font script="Beng" typeface="Vrinda"/>
-        <a:font script="Gujr" typeface="Shruti"/>
-        <a:font script="Khmr" typeface="DaunPenh"/>
-        <a:font script="Knda" typeface="Tunga"/>
-        <a:font script="Guru" typeface="Raavi"/>
-        <a:font script="Cans" typeface="Euphemia"/>
-        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
-        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
-        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
-        <a:font script="Thaa" typeface="MV Boli"/>
-        <a:font script="Deva" typeface="Mangal"/>
-        <a:font script="Telu" typeface="Gautami"/>
-        <a:font script="Taml" typeface="Latha"/>
-        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
-        <a:font script="Orya" typeface="Kalinga"/>
-        <a:font script="Mlym" typeface="Kartika"/>
-        <a:font script="Laoo" typeface="DokChampa"/>
-        <a:font script="Sinh" typeface="Iskoola Pota"/>
-        <a:font script="Mong" typeface="Mongolian Baiti"/>
-        <a:font script="Viet" typeface="Arial"/>
-        <a:font script="Uigh" typeface="Microsoft Uighur"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme>
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
-                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
-              </a:schemeClr>
+              <a:schemeClr val="phClr"/>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="51000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:tint val="15000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
+          <a:effectLst/>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
+          <a:effectLst/>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
-                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:tint val="20000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill rotWithShape="1">
+        <a:gradFill>
           <a:gsLst>
             <a:gs pos="0">
+              <a:schemeClr val="phClr"/>
+            </a:gs>
+            <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
+          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
@@ -473,92 +394,93 @@
   </sheetPr>
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="13.28" customWidth="1" style="3" min="1" max="2"/>
+    <col width="13.29" customWidth="1" style="9" min="1" max="1"/>
+    <col width="13.29" customWidth="1" style="10" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="11">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>PARAMETER</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>VALUE</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="17.25" customHeight="1" s="11">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>name</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="13" t="inlineStr">
         <is>
           <t>Demo_v1</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="11">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>mode</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
-        <is>
-          <t>random</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" ht="15" customHeight="1" s="4">
-      <c r="A4" s="3" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
+        <is>
+          <t>manual</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="17.25" customHeight="1" s="11">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>N_random</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
+      <c r="B4" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="4">
-      <c r="A5" s="3" t="inlineStr">
+    <row r="5" ht="17.25" customHeight="1" s="11">
+      <c r="A5" s="12" t="inlineStr">
         <is>
           <t>output_file</t>
         </is>
       </c>
-      <c r="B5" s="3" t="inlineStr">
+      <c r="B5" s="13" t="inlineStr">
         <is>
           <t>/postProcessing/probes/0/p</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="15" customHeight="1" s="4">
-      <c r="A6" s="3" t="inlineStr">
+    <row r="6" ht="17.25" customHeight="1" s="11">
+      <c r="A6" s="12" t="inlineStr">
         <is>
           <t>mesher</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B6" s="13" t="inlineStr">
         <is>
           <t>blockMesh</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="15" customHeight="1" s="4">
-      <c r="A7" s="3" t="inlineStr">
+    <row r="7" ht="17.25" customHeight="1" s="11">
+      <c r="A7" s="12" t="inlineStr">
         <is>
           <t>solver</t>
         </is>
       </c>
-      <c r="B7" s="3" t="inlineStr">
+      <c r="B7" s="13" t="inlineStr">
         <is>
           <t>simpleFoam</t>
         </is>
@@ -567,7 +489,7 @@
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -580,127 +502,134 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="25.28" customWidth="1" style="3" min="1" max="1"/>
-    <col width="26.15" customWidth="1" style="3" min="2" max="2"/>
+    <col width="25.29" customWidth="1" style="9" min="1" max="1"/>
+    <col width="26.16" customWidth="1" style="9" min="2" max="2"/>
+    <col width="12.43" customWidth="1" style="10" min="3" max="5"/>
+    <col width="12.43" customWidth="1" style="9" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="11">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>VARIABLE</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>TYPE</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>N</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="12" t="inlineStr">
         <is>
           <t>MANUAL</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="17.25" customHeight="1" s="11">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>geometric_progress</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="14" t="n">
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="11">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>arithmetic_progress</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="14" t="n">
         <v>100</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="14" t="n">
         <v>500</v>
       </c>
-      <c r="E3" s="3" t="n">
+      <c r="E3" s="14" t="n">
         <v>2</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="4">
-      <c r="A4" s="3" t="inlineStr">
+    <row r="4" ht="17.25" customHeight="1" s="11">
+      <c r="A4" s="12" t="inlineStr">
         <is>
           <t>mu</t>
         </is>
       </c>
-      <c r="B4" s="3" t="inlineStr">
+      <c r="B4" s="12" t="inlineStr">
         <is>
           <t>manual</t>
         </is>
       </c>
-      <c r="F4" s="3" t="inlineStr">
+      <c r="F4" s="12" t="inlineStr">
         <is>
           <t>7;2</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.8" customHeight="1" s="4"/>
-    <row r="11" ht="13.8" customHeight="1" s="4"/>
-    <row r="12" ht="13.8" customHeight="1" s="4"/>
-    <row r="13" ht="13.8" customHeight="1" s="4"/>
-    <row r="14" ht="13.8" customHeight="1" s="4"/>
-    <row r="15" ht="13.8" customHeight="1" s="4"/>
-    <row r="16" ht="13.8" customHeight="1" s="4"/>
-    <row r="17" ht="13.8" customHeight="1" s="4"/>
-    <row r="18" ht="13.8" customHeight="1" s="4"/>
-    <row r="19" ht="13.8" customHeight="1" s="4"/>
-    <row r="20" ht="13.8" customHeight="1" s="4"/>
-    <row r="21" ht="13.8" customHeight="1" s="4"/>
-    <row r="22" ht="13.8" customHeight="1" s="4"/>
-    <row r="23" ht="13.8" customHeight="1" s="4"/>
-    <row r="24" ht="13.8" customHeight="1" s="4"/>
-    <row r="25" ht="13.8" customHeight="1" s="4"/>
-    <row r="26" ht="13.8" customHeight="1" s="4"/>
+    <row r="5" ht="17.25" customHeight="1" s="11"/>
+    <row r="6" ht="17.25" customHeight="1" s="11"/>
+    <row r="7" ht="17.25" customHeight="1" s="11"/>
+    <row r="8" ht="17.25" customHeight="1" s="11"/>
+    <row r="9" ht="17.25" customHeight="1" s="11"/>
+    <row r="10" ht="17.25" customHeight="1" s="11"/>
+    <row r="11" ht="17.25" customHeight="1" s="11"/>
+    <row r="12" ht="17.25" customHeight="1" s="11"/>
+    <row r="13" ht="17.25" customHeight="1" s="11"/>
+    <row r="14" ht="17.25" customHeight="1" s="11"/>
+    <row r="15" ht="17.25" customHeight="1" s="11"/>
+    <row r="16" ht="17.25" customHeight="1" s="11"/>
+    <row r="17" ht="17.25" customHeight="1" s="11"/>
+    <row r="18" ht="17.25" customHeight="1" s="11"/>
+    <row r="19" ht="17.25" customHeight="1" s="11"/>
+    <row r="20" ht="17.25" customHeight="1" s="11"/>
+    <row r="21" ht="17.25" customHeight="1" s="11"/>
+    <row r="22" ht="17.25" customHeight="1" s="11"/>
+    <row r="23" ht="17.25" customHeight="1" s="11"/>
+    <row r="24" ht="17.25" customHeight="1" s="11"/>
+    <row r="25" ht="17.25" customHeight="1" s="11"/>
+    <row r="26" ht="17.25" customHeight="1" s="11"/>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -710,74 +639,91 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C3" activeCellId="0" sqref="C3"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <cols>
+    <col width="12.43" customWidth="1" style="15" min="1" max="1"/>
+    <col width="12.43" customWidth="1" style="14" min="2" max="3"/>
+  </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="11">
+      <c r="A1" s="16" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="13" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="4">
-      <c r="A2" s="5" t="inlineStr">
+    <row r="2" ht="17.25" customHeight="1" s="11">
+      <c r="A2" s="16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="B2" s="3" t="n">
+      <c r="B2" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="14" t="n">
         <v>1231</v>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="4">
-      <c r="A3" s="5" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="11">
+      <c r="A3" s="16" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="B3" s="3" t="n">
+      <c r="B3" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="14" t="n">
         <v>11412</v>
       </c>
     </row>
-    <row r="4" ht="15" customHeight="1" s="4">
-      <c r="A4" s="5" t="inlineStr">
+    <row r="4" ht="17.25" customHeight="1" s="11">
+      <c r="A4" s="16" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="B4" s="3" t="n">
-        <v>1000</v>
-      </c>
-      <c r="C4" s="3" t="n">
+      <c r="B4" s="14" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" s="14" t="n">
         <v>123214</v>
+      </c>
+    </row>
+    <row r="5" ht="15" customHeight="1" s="11">
+      <c r="A5" s="15" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B5" s="14" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" s="14" t="n">
+        <v>123512</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -790,106 +736,108 @@
   <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C2" activeCellId="0" sqref="C2"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="23.57" customWidth="1" style="3" min="1" max="1"/>
-    <col width="29.86" customWidth="1" style="3" min="2" max="2"/>
-    <col width="20.43" customWidth="1" style="3" min="3" max="3"/>
-    <col width="20.71" customWidth="1" style="3" min="4" max="4"/>
-    <col width="12.57" customWidth="1" style="3" min="5" max="5"/>
+    <col width="23.58" customWidth="1" style="9" min="1" max="1"/>
+    <col width="29.86" customWidth="1" style="9" min="2" max="2"/>
+    <col width="20.43" customWidth="1" style="14" min="3" max="3"/>
+    <col width="20.72" customWidth="1" style="14" min="4" max="4"/>
+    <col width="12.57" customWidth="1" style="10" min="5" max="5"/>
+    <col width="12.43" customWidth="1" style="10" min="6" max="6"/>
+    <col width="12.43" customWidth="1" style="9" min="7" max="7"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="11">
+      <c r="A1" s="12" t="inlineStr">
         <is>
           <t>VARIABLE</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>DISTRIBUTION</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="13" t="inlineStr">
         <is>
           <t>MIN</t>
         </is>
       </c>
-      <c r="D1" s="3" t="inlineStr">
+      <c r="D1" s="13" t="inlineStr">
         <is>
           <t>MAX</t>
         </is>
       </c>
-      <c r="E1" s="3" t="inlineStr">
+      <c r="E1" s="13" t="inlineStr">
         <is>
           <t>MU</t>
         </is>
       </c>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="13" t="inlineStr">
         <is>
           <t>SIGMA</t>
         </is>
       </c>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="12" t="inlineStr">
         <is>
           <t>LIMITS</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="15" customHeight="1" s="4">
-      <c r="A2" s="3" t="inlineStr">
+    <row r="2" ht="17.25" customHeight="1" s="11">
+      <c r="A2" s="12" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>normal</t>
         </is>
       </c>
-      <c r="C2" s="3" t="n">
+      <c r="C2" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="n">
+      <c r="D2" s="14" t="n">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="n">
+      <c r="E2" s="14" t="n">
         <v>5</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="F2" s="14" t="n">
         <v>2</v>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="G2" s="12" t="inlineStr">
         <is>
           <t>YES</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="15" customHeight="1" s="4">
-      <c r="A3" s="3" t="inlineStr">
+    <row r="3" ht="17.25" customHeight="1" s="11">
+      <c r="A3" s="12" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>uniform</t>
         </is>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="14" t="n">
         <v>10000</v>
       </c>
-      <c r="D3" s="3" t="n">
+      <c r="D3" s="14" t="n">
         <v>20000</v>
       </c>
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -902,57 +850,58 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="9.16015625" defaultRowHeight="13.8" zeroHeight="0" outlineLevelRow="0"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.5703125" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="22.04" customWidth="1" style="3" min="2" max="2"/>
-    <col width="25.15" customWidth="1" style="3" min="3" max="3"/>
+    <col width="12.43" customWidth="1" style="14" min="1" max="1"/>
+    <col width="22.01" customWidth="1" style="9" min="2" max="2"/>
+    <col width="25.14" customWidth="1" style="9" min="3" max="3"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.8" customHeight="1" s="4">
-      <c r="A1" s="3" t="inlineStr">
+    <row r="1" ht="17.25" customHeight="1" s="11">
+      <c r="A1" s="13" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="3" t="inlineStr">
+      <c r="B1" s="12" t="inlineStr">
         <is>
           <t>OUTPUT_NAME</t>
         </is>
       </c>
-      <c r="C1" s="3" t="inlineStr">
+      <c r="C1" s="12" t="inlineStr">
         <is>
           <t>PATH</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.8" customHeight="1" s="4">
-      <c r="A2" s="3" t="n">
+    <row r="2" ht="17.25" customHeight="1" s="11">
+      <c r="A2" s="14" t="n">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>p</t>
         </is>
       </c>
-      <c r="C2" s="3" t="inlineStr">
+      <c r="C2" s="12" t="inlineStr">
         <is>
           <t>/postProcessing/probes/0/p</t>
         </is>
       </c>
     </row>
-    <row r="3" ht="13.8" customHeight="1" s="4">
-      <c r="A3" s="3" t="n">
+    <row r="3" ht="17.25" customHeight="1" s="11">
+      <c r="A3" s="14" t="n">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="inlineStr">
+      <c r="B3" s="12" t="inlineStr">
         <is>
           <t>magU</t>
         </is>
       </c>
-      <c r="C3" s="3" t="inlineStr">
+      <c r="C3" s="12" t="inlineStr">
         <is>
           <t>/postProcessing/probes/0/mag(U)</t>
         </is>
@@ -960,16 +909,8 @@
     </row>
   </sheetData>
   <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
-  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentOddEven="0" differentFirst="0">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;Kffffff&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12 &amp;KffffffPage &amp;P</oddFooter>
-    <evenHeader/>
-    <evenFooter/>
-    <firstHeader/>
-    <firstFooter/>
-  </headerFooter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup orientation="portrait" paperSize="1" scale="100" fitToHeight="1" fitToWidth="1" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
 </worksheet>
 </file>
 
@@ -979,7 +920,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -988,17 +929,17 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="6" t="inlineStr">
+      <c r="A1" s="17" t="inlineStr">
         <is>
           <t>ID</t>
         </is>
       </c>
-      <c r="B1" s="6" t="inlineStr">
+      <c r="B1" s="17" t="inlineStr">
         <is>
           <t>UIn</t>
         </is>
       </c>
-      <c r="C1" s="6" t="inlineStr">
+      <c r="C1" s="17" t="inlineStr">
         <is>
           <t>p</t>
         </is>
@@ -1009,10 +950,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>5.165942130649757</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>11154.18953864742</v>
+        <v>1231</v>
       </c>
     </row>
     <row r="3">
@@ -1020,10 +961,32 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.798849819416276</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
-        <v>13672.96917189622</v>
+        <v>11412</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>5</v>
+      </c>
+      <c r="C4" t="n">
+        <v>123214</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>123512</v>
       </c>
     </row>
   </sheetData>
